--- a/dataset experiments/второй класс 10-11/Сводная_ведомость_учета_успеваемости_класса.xlsx
+++ b/dataset experiments/второй класс 10-11/Сводная_ведомость_учета_успеваемости_класса.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motve\Desktop\papka\1studing\1python main\school_success_prediction\dataset experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motve\Desktop\papka\1studing\1python main\school_success_prediction\dataset experiments\второй класс 10-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4D7C0-FE34-4B52-87A9-E70D1E8FAE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E7632E-AA90-4706-8E9D-4FBC6044A2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="4008" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="312" windowWidth="16620" windowHeight="14892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -353,19 +353,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +374,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,6 +385,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -712,53 +712,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="11.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="24.9" customHeight="1"/>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="22.8">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
     </row>
     <row r="6" spans="1:22" ht="13.8">
       <c r="A6" s="5"/>
@@ -776,67 +776,67 @@
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="22" t="s">
+      <c r="U10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -844,33 +844,33 @@
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -929,8 +929,8 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
@@ -987,8 +987,8 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
@@ -1045,8 +1045,8 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1105,8 +1105,8 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1133,8 +1133,8 @@
       <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="17"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
         <v>27</v>
@@ -1223,7 +1223,7 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="18"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
         <v>33</v>
@@ -1249,10 +1249,10 @@
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1311,8 +1311,8 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
@@ -1369,8 +1369,8 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1427,8 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13">
         <v>11</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1487,8 +1487,8 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1515,8 +1515,8 @@
       <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="V25" s="9"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="17"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
         <v>27</v>
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="18"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
         <v>33</v>
@@ -1631,10 +1631,10 @@
       <c r="V27" s="9"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1693,8 +1693,8 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
@@ -1751,8 +1751,8 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="9" t="s">
         <v>26</v>
       </c>
@@ -1809,8 +1809,8 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13">
         <v>11</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -1869,8 +1869,8 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="9" t="s">
         <v>24</v>
       </c>
@@ -1897,8 +1897,8 @@
       <c r="V32" s="9"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="9" t="s">
         <v>26</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="V33" s="9"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
         <v>27</v>
@@ -1987,7 +1987,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
         <v>33</v>
@@ -2013,10 +2013,10 @@
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="13">
         <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2075,8 +2075,8 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="9" t="s">
         <v>24</v>
       </c>
@@ -2133,8 +2133,8 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="9" t="s">
         <v>26</v>
       </c>
@@ -2191,8 +2191,8 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16">
+      <c r="A39" s="14"/>
+      <c r="B39" s="13">
         <v>11</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -2251,8 +2251,8 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="9" t="s">
         <v>24</v>
       </c>
@@ -2279,8 +2279,8 @@
       <c r="V40" s="9"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="V41" s="9"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="17"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
         <v>27</v>
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="18"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
         <v>33</v>
@@ -2395,10 +2395,10 @@
       <c r="V43" s="9"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="13">
         <v>10</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -2457,8 +2457,8 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="9" t="s">
         <v>24</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="9" t="s">
         <v>26</v>
       </c>
@@ -2573,8 +2573,8 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="17"/>
-      <c r="B47" s="16">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13">
         <v>11</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -2633,8 +2633,8 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="9" t="s">
         <v>24</v>
       </c>
@@ -2661,8 +2661,8 @@
       <c r="V48" s="9"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="9" t="s">
         <v>26</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="V49" s="9"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="17"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
         <v>27</v>
@@ -2751,7 +2751,7 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="18"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
         <v>33</v>
@@ -2777,10 +2777,10 @@
       <c r="V51" s="9"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="13">
         <v>10</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2839,8 +2839,8 @@
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="9" t="s">
         <v>24</v>
       </c>
@@ -2897,8 +2897,8 @@
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="9" t="s">
         <v>26</v>
       </c>
@@ -2955,8 +2955,8 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="17"/>
-      <c r="B55" s="16">
+      <c r="A55" s="14"/>
+      <c r="B55" s="13">
         <v>11</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -3015,8 +3015,8 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="9" t="s">
         <v>24</v>
       </c>
@@ -3043,8 +3043,8 @@
       <c r="V56" s="9"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="9" t="s">
         <v>26</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="V57" s="9"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="17"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
         <v>27</v>
@@ -3133,7 +3133,7 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="18"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
         <v>33</v>
@@ -3159,10 +3159,10 @@
       <c r="V59" s="9"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="13">
         <v>10</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -3221,8 +3221,8 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="9" t="s">
         <v>24</v>
       </c>
@@ -3279,8 +3279,8 @@
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="9" t="s">
         <v>26</v>
       </c>
@@ -3337,8 +3337,8 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="17"/>
-      <c r="B63" s="16">
+      <c r="A63" s="14"/>
+      <c r="B63" s="13">
         <v>11</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -3397,8 +3397,8 @@
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="9" t="s">
         <v>24</v>
       </c>
@@ -3425,8 +3425,8 @@
       <c r="V64" s="9"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="9" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="17"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
         <v>27</v>
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="18"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
         <v>33</v>
@@ -3541,10 +3541,10 @@
       <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="13">
         <v>10</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="9" t="s">
         <v>24</v>
       </c>
@@ -3661,8 +3661,8 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="9" t="s">
         <v>26</v>
       </c>
@@ -3719,8 +3719,8 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16">
+      <c r="A71" s="14"/>
+      <c r="B71" s="13">
         <v>11</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -3779,8 +3779,8 @@
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="9" t="s">
         <v>24</v>
       </c>
@@ -3807,8 +3807,8 @@
       <c r="V72" s="9"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="9" t="s">
         <v>26</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="V73" s="9"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="17"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
         <v>27</v>
@@ -3897,7 +3897,7 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="18"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
         <v>33</v>
@@ -3923,10 +3923,10 @@
       <c r="V75" s="9"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="13">
         <v>10</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3985,8 +3985,8 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="9" t="s">
         <v>24</v>
       </c>
@@ -4043,8 +4043,8 @@
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="9" t="s">
         <v>26</v>
       </c>
@@ -4101,8 +4101,8 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="17"/>
-      <c r="B79" s="16">
+      <c r="A79" s="14"/>
+      <c r="B79" s="13">
         <v>11</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -4161,8 +4161,8 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="9" t="s">
         <v>24</v>
       </c>
@@ -4189,8 +4189,8 @@
       <c r="V80" s="9"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="9" t="s">
         <v>26</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="V81" s="9"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="17"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
         <v>27</v>
@@ -4279,7 +4279,7 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="18"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
         <v>33</v>
@@ -4305,10 +4305,10 @@
       <c r="V83" s="9"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="13">
         <v>10</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -4367,8 +4367,8 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="9" t="s">
         <v>24</v>
       </c>
@@ -4425,8 +4425,8 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="9" t="s">
         <v>26</v>
       </c>
@@ -4483,8 +4483,8 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="17"/>
-      <c r="B87" s="16">
+      <c r="A87" s="14"/>
+      <c r="B87" s="13">
         <v>11</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -4543,8 +4543,8 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="9" t="s">
         <v>24</v>
       </c>
@@ -4571,8 +4571,8 @@
       <c r="V88" s="9"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="9" t="s">
         <v>26</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="V89" s="9"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="17"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9" t="s">
         <v>27</v>
@@ -4661,7 +4661,7 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="18"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9" t="s">
         <v>33</v>
@@ -4687,10 +4687,10 @@
       <c r="V91" s="9"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="13">
         <v>10</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -4749,8 +4749,8 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="9" t="s">
         <v>24</v>
       </c>
@@ -4807,8 +4807,8 @@
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="9" t="s">
         <v>26</v>
       </c>
@@ -4865,8 +4865,8 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="17"/>
-      <c r="B95" s="16">
+      <c r="A95" s="14"/>
+      <c r="B95" s="13">
         <v>11</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -4925,8 +4925,8 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="9" t="s">
         <v>24</v>
       </c>
@@ -4953,8 +4953,8 @@
       <c r="V96" s="9"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="9" t="s">
         <v>26</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="V97" s="9"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="17"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9" t="s">
         <v>27</v>
@@ -5043,7 +5043,7 @@
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="18"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9" t="s">
         <v>33</v>
@@ -5069,10 +5069,10 @@
       <c r="V99" s="9"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="13">
         <v>10</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -5131,8 +5131,8 @@
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="9" t="s">
         <v>24</v>
       </c>
@@ -5189,8 +5189,8 @@
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="9" t="s">
         <v>26</v>
       </c>
@@ -5247,8 +5247,8 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="17"/>
-      <c r="B103" s="16">
+      <c r="A103" s="14"/>
+      <c r="B103" s="13">
         <v>11</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -5307,8 +5307,8 @@
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="9" t="s">
         <v>24</v>
       </c>
@@ -5335,8 +5335,8 @@
       <c r="V104" s="9"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="9" t="s">
         <v>26</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="V105" s="9"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="17"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9" t="s">
         <v>27</v>
@@ -5425,7 +5425,7 @@
       </c>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="18"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9" t="s">
         <v>33</v>
@@ -5451,10 +5451,10 @@
       <c r="V107" s="9"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="13">
         <v>10</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -5513,8 +5513,8 @@
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="9" t="s">
         <v>24</v>
       </c>
@@ -5571,8 +5571,8 @@
       </c>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="9" t="s">
         <v>26</v>
       </c>
@@ -5629,8 +5629,8 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="17"/>
-      <c r="B111" s="16">
+      <c r="A111" s="14"/>
+      <c r="B111" s="13">
         <v>11</v>
       </c>
       <c r="C111" s="9" t="s">
@@ -5689,8 +5689,8 @@
       </c>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="9" t="s">
         <v>24</v>
       </c>
@@ -5717,8 +5717,8 @@
       <c r="V112" s="9"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="9" t="s">
         <v>26</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="V113" s="9"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="17"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9" t="s">
         <v>27</v>
@@ -5807,7 +5807,7 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="18"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9" t="s">
         <v>33</v>
@@ -5833,10 +5833,10 @@
       <c r="V115" s="9"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="13">
         <v>10</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -5895,8 +5895,8 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="9" t="s">
         <v>24</v>
       </c>
@@ -5953,8 +5953,8 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="17"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="9" t="s">
         <v>26</v>
       </c>
@@ -6011,8 +6011,8 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="17"/>
-      <c r="B119" s="16">
+      <c r="A119" s="14"/>
+      <c r="B119" s="13">
         <v>11</v>
       </c>
       <c r="C119" s="9" t="s">
@@ -6071,8 +6071,8 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="9" t="s">
         <v>24</v>
       </c>
@@ -6099,8 +6099,8 @@
       <c r="V120" s="9"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="17"/>
-      <c r="B121" s="18"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="9" t="s">
         <v>26</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="V121" s="9"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="17"/>
+      <c r="A122" s="14"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9" t="s">
         <v>27</v>
@@ -6189,7 +6189,7 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="18"/>
+      <c r="A123" s="15"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9" t="s">
         <v>33</v>
@@ -6215,10 +6215,10 @@
       <c r="V123" s="9"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="13">
         <v>10</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -6277,8 +6277,8 @@
       </c>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="9" t="s">
         <v>24</v>
       </c>
@@ -6335,8 +6335,8 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="17"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="9" t="s">
         <v>26</v>
       </c>
@@ -6393,8 +6393,8 @@
       </c>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="17"/>
-      <c r="B127" s="16">
+      <c r="A127" s="14"/>
+      <c r="B127" s="13">
         <v>11</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -6453,8 +6453,8 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="9" t="s">
         <v>24</v>
       </c>
@@ -6481,8 +6481,8 @@
       <c r="V128" s="9"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="17"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="9" t="s">
         <v>26</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="V129" s="9"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="17"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9" t="s">
         <v>27</v>
@@ -6571,7 +6571,7 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="18"/>
+      <c r="A131" s="15"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9" t="s">
         <v>33</v>
@@ -6597,10 +6597,10 @@
       <c r="V131" s="9"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="13">
         <v>10</v>
       </c>
       <c r="C132" s="9" t="s">
@@ -6659,8 +6659,8 @@
       </c>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="9" t="s">
         <v>24</v>
       </c>
@@ -6717,8 +6717,8 @@
       </c>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="17"/>
-      <c r="B134" s="18"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6775,8 +6775,8 @@
       </c>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="17"/>
-      <c r="B135" s="16">
+      <c r="A135" s="14"/>
+      <c r="B135" s="13">
         <v>11</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -6835,8 +6835,8 @@
       </c>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="9" t="s">
         <v>24</v>
       </c>
@@ -6863,8 +6863,8 @@
       <c r="V136" s="9"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="17"/>
-      <c r="B137" s="18"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="9" t="s">
         <v>26</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="V137" s="9"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="17"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
         <v>27</v>
@@ -6953,7 +6953,7 @@
       </c>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="18"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9" t="s">
         <v>33</v>
@@ -6979,10 +6979,10 @@
       <c r="V139" s="9"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="13">
         <v>10</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -7041,8 +7041,8 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="9" t="s">
         <v>24</v>
       </c>
@@ -7099,8 +7099,8 @@
       </c>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="9" t="s">
         <v>26</v>
       </c>
@@ -7157,8 +7157,8 @@
       </c>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="17"/>
-      <c r="B143" s="16">
+      <c r="A143" s="14"/>
+      <c r="B143" s="13">
         <v>11</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -7217,8 +7217,8 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="9" t="s">
         <v>24</v>
       </c>
@@ -7245,8 +7245,8 @@
       <c r="V144" s="9"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="17"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="9" t="s">
         <v>26</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="V145" s="9"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="17"/>
+      <c r="A146" s="14"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9" t="s">
         <v>27</v>
@@ -7335,7 +7335,7 @@
       </c>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="18"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9" t="s">
         <v>33</v>
@@ -7361,10 +7361,10 @@
       <c r="V147" s="9"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="13">
         <v>10</v>
       </c>
       <c r="C148" s="9" t="s">
@@ -7423,8 +7423,8 @@
       </c>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17"/>
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="9" t="s">
         <v>24</v>
       </c>
@@ -7481,8 +7481,8 @@
       </c>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="17"/>
-      <c r="B150" s="18"/>
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="9" t="s">
         <v>26</v>
       </c>
@@ -7539,8 +7539,8 @@
       </c>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="17"/>
-      <c r="B151" s="16">
+      <c r="A151" s="14"/>
+      <c r="B151" s="13">
         <v>11</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -7599,8 +7599,8 @@
       </c>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="9" t="s">
         <v>24</v>
       </c>
@@ -7627,8 +7627,8 @@
       <c r="V152" s="9"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="17"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="9" t="s">
         <v>26</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="V153" s="9"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="17"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9" t="s">
         <v>27</v>
@@ -7717,7 +7717,7 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="18"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9" t="s">
         <v>33</v>
@@ -7743,10 +7743,10 @@
       <c r="V155" s="9"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="13">
         <v>10</v>
       </c>
       <c r="C156" s="9" t="s">
@@ -7805,8 +7805,8 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="9" t="s">
         <v>24</v>
       </c>
@@ -7863,8 +7863,8 @@
       </c>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="17"/>
-      <c r="B158" s="18"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="9" t="s">
         <v>26</v>
       </c>
@@ -7921,8 +7921,8 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="17"/>
-      <c r="B159" s="16">
+      <c r="A159" s="14"/>
+      <c r="B159" s="13">
         <v>11</v>
       </c>
       <c r="C159" s="9" t="s">
@@ -7981,8 +7981,8 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="9" t="s">
         <v>24</v>
       </c>
@@ -8009,8 +8009,8 @@
       <c r="V160" s="9"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="17"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="9" t="s">
         <v>26</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="V161" s="9"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="17"/>
+      <c r="A162" s="14"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9" t="s">
         <v>27</v>
@@ -8099,7 +8099,7 @@
       </c>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="18"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9" t="s">
         <v>33</v>
@@ -8125,10 +8125,10 @@
       <c r="V163" s="9"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="13">
         <v>10</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -8187,8 +8187,8 @@
       </c>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="9" t="s">
         <v>24</v>
       </c>
@@ -8245,8 +8245,8 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="9" t="s">
         <v>26</v>
       </c>
@@ -8303,8 +8303,8 @@
       </c>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="17"/>
-      <c r="B167" s="16">
+      <c r="A167" s="14"/>
+      <c r="B167" s="13">
         <v>11</v>
       </c>
       <c r="C167" s="9" t="s">
@@ -8363,8 +8363,8 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="9" t="s">
         <v>24</v>
       </c>
@@ -8391,8 +8391,8 @@
       <c r="V168" s="9"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="17"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="9" t="s">
         <v>26</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="V169" s="9"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="17"/>
+      <c r="A170" s="14"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9" t="s">
         <v>27</v>
@@ -8481,7 +8481,7 @@
       </c>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="18"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9" t="s">
         <v>33</v>
@@ -8507,10 +8507,10 @@
       <c r="V171" s="9"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="16" t="s">
+      <c r="A172" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B172" s="13">
         <v>10</v>
       </c>
       <c r="C172" s="9" t="s">
@@ -8569,8 +8569,8 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="9" t="s">
         <v>24</v>
       </c>
@@ -8627,8 +8627,8 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="17"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="14"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="9" t="s">
         <v>26</v>
       </c>
@@ -8685,8 +8685,8 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="17"/>
-      <c r="B175" s="16">
+      <c r="A175" s="14"/>
+      <c r="B175" s="13">
         <v>11</v>
       </c>
       <c r="C175" s="9" t="s">
@@ -8745,8 +8745,8 @@
       </c>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="9" t="s">
         <v>24</v>
       </c>
@@ -8773,8 +8773,8 @@
       <c r="V176" s="9"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="14"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="9" t="s">
         <v>26</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="V177" s="9"/>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="17"/>
+      <c r="A178" s="14"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9" t="s">
         <v>27</v>
@@ -8863,7 +8863,7 @@
       </c>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="18"/>
+      <c r="A179" s="15"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9" t="s">
         <v>33</v>
@@ -8889,10 +8889,10 @@
       <c r="V179" s="9"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="16" t="s">
+      <c r="A180" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="13">
         <v>10</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -8951,8 +8951,8 @@
       </c>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="9" t="s">
         <v>24</v>
       </c>
@@ -9009,8 +9009,8 @@
       </c>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="9" t="s">
         <v>26</v>
       </c>
@@ -9067,8 +9067,8 @@
       </c>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="17"/>
-      <c r="B183" s="16">
+      <c r="A183" s="14"/>
+      <c r="B183" s="13">
         <v>11</v>
       </c>
       <c r="C183" s="9" t="s">
@@ -9127,8 +9127,8 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="17"/>
-      <c r="B184" s="17"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="9" t="s">
         <v>24</v>
       </c>
@@ -9155,8 +9155,8 @@
       <c r="V184" s="9"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="17"/>
-      <c r="B185" s="18"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="9" t="s">
         <v>26</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="V185" s="9"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="17"/>
+      <c r="A186" s="14"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9" t="s">
         <v>27</v>
@@ -9245,7 +9245,7 @@
       </c>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="18"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9" t="s">
         <v>33</v>
@@ -9271,10 +9271,10 @@
       <c r="V187" s="9"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B188" s="22">
         <v>10</v>
       </c>
       <c r="C188" s="9" t="s">
@@ -9333,8 +9333,8 @@
       </c>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
+      <c r="A189" s="22"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="9" t="s">
         <v>24</v>
       </c>
@@ -9391,8 +9391,8 @@
       </c>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="9" t="s">
         <v>26</v>
       </c>
@@ -9449,8 +9449,8 @@
       </c>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11">
+      <c r="A191" s="22"/>
+      <c r="B191" s="22">
         <v>11</v>
       </c>
       <c r="C191" s="9" t="s">
@@ -9509,8 +9509,8 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="9" t="s">
         <v>24</v>
       </c>
@@ -9537,8 +9537,8 @@
       <c r="V192" s="9"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="11"/>
-      <c r="B193" s="12"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="9" t="s">
         <v>26</v>
       </c>
@@ -9563,7 +9563,7 @@
       <c r="V193" s="9"/>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="11"/>
+      <c r="A194" s="22"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9" t="s">
         <v>27</v>
@@ -9627,7 +9627,7 @@
       </c>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="11"/>
+      <c r="A195" s="22"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9" t="s">
         <v>33</v>
@@ -9678,6 +9678,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="A188:A195"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A140:A147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A148:A155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A132:A139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="A180:A187"/>
@@ -9694,82 +9770,6 @@
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="U10:U11"/>
     <mergeCell ref="V10:V11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A148:A155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="A188:A195"/>
-    <mergeCell ref="B188:B190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
